--- a/table/question/question-fagui.xlsx
+++ b/table/question/question-fagui.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="618">
   <si>
     <t>ID</t>
   </si>
@@ -1031,6 +1031,846 @@
   </si>
   <si>
     <t>派出所</t>
+  </si>
+  <si>
+    <t>组织、策划、实施分裂国家、破坏国家统一的非法行为被叫做：</t>
+  </si>
+  <si>
+    <t>颠覆国家政权罪</t>
+  </si>
+  <si>
+    <t>背叛国家罪</t>
+  </si>
+  <si>
+    <t>分裂国家罪</t>
+  </si>
+  <si>
+    <t>投敌叛变罪</t>
+  </si>
+  <si>
+    <t>依据我国法律规定，下列属于危害公共安全罪的是：</t>
+  </si>
+  <si>
+    <t>叛逃罪</t>
+  </si>
+  <si>
+    <t>放火罪</t>
+  </si>
+  <si>
+    <t>依据我国法律规定，下列属于危害国家安全罪的是：</t>
+  </si>
+  <si>
+    <t>爆炸罪</t>
+  </si>
+  <si>
+    <t>决水罪</t>
+  </si>
+  <si>
+    <t>冒用他人的汇票、本票、支票进行金融票据诈骗活动属于：</t>
+  </si>
+  <si>
+    <t>集资诈骗罪</t>
+  </si>
+  <si>
+    <t>票据诈骗罪</t>
+  </si>
+  <si>
+    <t>贷款诈骗罪</t>
+  </si>
+  <si>
+    <t>信用证诈骗罪</t>
+  </si>
+  <si>
+    <t>纳税人采取欺骗、隐瞒手段进行虚假纳税申报的行为属于：</t>
+  </si>
+  <si>
+    <t>抗税罪</t>
+  </si>
+  <si>
+    <t>逃税罪</t>
+  </si>
+  <si>
+    <t>有价证券诈骗罪</t>
+  </si>
+  <si>
+    <t>以暴力、威胁方法拒不缴纳税款的行为属于：</t>
+  </si>
+  <si>
+    <t>逃避追缴欠税罪</t>
+  </si>
+  <si>
+    <t>虚开发票罪</t>
+  </si>
+  <si>
+    <t>假冒他人专利，情节严重的，处几年以下有期徒刑或者拘役？</t>
+  </si>
+  <si>
+    <t>三年</t>
+  </si>
+  <si>
+    <t>在我国，非法侵入他人住宅的行为属于：</t>
+  </si>
+  <si>
+    <t>非法闯入住宅罪</t>
+  </si>
+  <si>
+    <t>非法侵入住宅罪</t>
+  </si>
+  <si>
+    <t>非法进入住宅罪</t>
+  </si>
+  <si>
+    <t>非法占居住宅罪</t>
+  </si>
+  <si>
+    <t>我国法律规定，有配偶而重婚的，处几年以下有期徒刑或拘役？</t>
+  </si>
+  <si>
+    <t>二年</t>
+  </si>
+  <si>
+    <t>7年</t>
+  </si>
+  <si>
+    <t>世界各国沿用的法律体系基本上可分为大陆法系和：</t>
+  </si>
+  <si>
+    <t>法典法系</t>
+  </si>
+  <si>
+    <t>民法法系</t>
+  </si>
+  <si>
+    <t>成文法系</t>
+  </si>
+  <si>
+    <t>英美法系</t>
+  </si>
+  <si>
+    <t>依据我国法律，非法种植罂粟三千株以上的处几年以上有期徒刑？</t>
+  </si>
+  <si>
+    <t>七年</t>
+  </si>
+  <si>
+    <t>为谋取不正当利益，给予国家工作人员以财物的行为属于：</t>
+  </si>
+  <si>
+    <t>受贿罪</t>
+  </si>
+  <si>
+    <t>行贿罪</t>
+  </si>
+  <si>
+    <t>挪用公款罪</t>
+  </si>
+  <si>
+    <t>国家所有的森林资源的所有权由哪一机关代表国家行使？</t>
+  </si>
+  <si>
+    <t>外交部</t>
+  </si>
+  <si>
+    <t>最高人民法院</t>
+  </si>
+  <si>
+    <t>法律规定，证券的代销、包销期限最长不得超过：</t>
+  </si>
+  <si>
+    <t>九十日</t>
+  </si>
+  <si>
+    <t>六十日</t>
+  </si>
+  <si>
+    <t>三十日</t>
+  </si>
+  <si>
+    <t>十五日</t>
+  </si>
+  <si>
+    <t>国家对密码实行分类管理，密码分为核心密码、普通密码和：</t>
+  </si>
+  <si>
+    <t>军用密码</t>
+  </si>
+  <si>
+    <t>商用密码</t>
+  </si>
+  <si>
+    <t>用户密码</t>
+  </si>
+  <si>
+    <t>外围密码</t>
+  </si>
+  <si>
+    <t>在我国，核心密码保护信息的最高密级为：</t>
+  </si>
+  <si>
+    <t>秘密级</t>
+  </si>
+  <si>
+    <t>保密级</t>
+  </si>
+  <si>
+    <t>机密级</t>
+  </si>
+  <si>
+    <t>绝密级</t>
+  </si>
+  <si>
+    <t>在我国，普通密码保护信息的最高密级为：</t>
+  </si>
+  <si>
+    <t>中华人民共和国实行土地的：</t>
+  </si>
+  <si>
+    <t>国有企业私有制</t>
+  </si>
+  <si>
+    <t>国有企业公有制</t>
+  </si>
+  <si>
+    <t>社会主义公有制</t>
+  </si>
+  <si>
+    <t>社会主义私有制</t>
+  </si>
+  <si>
+    <t>我国法律规定，城市市区的土地属于：</t>
+  </si>
+  <si>
+    <t>企业所有</t>
+  </si>
+  <si>
+    <t>该县区所有</t>
+  </si>
+  <si>
+    <t>该省份所有</t>
+  </si>
+  <si>
+    <t>我国法律规定，农村和城市郊区宅基地和自留地、自留山属于：</t>
+  </si>
+  <si>
+    <t>农民集体所有</t>
+  </si>
+  <si>
+    <t>我国法律规定，家庭承包的耕地的承包期为：</t>
+  </si>
+  <si>
+    <t>十五年</t>
+  </si>
+  <si>
+    <t>三十年</t>
+  </si>
+  <si>
+    <t>二十年</t>
+  </si>
+  <si>
+    <t>五十年</t>
+  </si>
+  <si>
+    <t>我国法律规定，草地的承包期为三十年至：</t>
+  </si>
+  <si>
+    <t>六十年</t>
+  </si>
+  <si>
+    <t>七十年</t>
+  </si>
+  <si>
+    <t>四十年</t>
+  </si>
+  <si>
+    <t>我国法律规定，林地的承包期为三十年至：</t>
+  </si>
+  <si>
+    <t>八十年</t>
+  </si>
+  <si>
+    <t>在我国，非农业建设经批准占用耕地的，需按照什么原则？</t>
+  </si>
+  <si>
+    <t>占多少，垦多少</t>
+  </si>
+  <si>
+    <t>占多少，赔多少</t>
+  </si>
+  <si>
+    <t>占多少，补多少</t>
+  </si>
+  <si>
+    <t>占多少，还多少</t>
+  </si>
+  <si>
+    <t>征收下列哪一土地，需要由国务院批准？</t>
+  </si>
+  <si>
+    <t>承包耕地</t>
+  </si>
+  <si>
+    <t>永久基本农田</t>
+  </si>
+  <si>
+    <t>承包草地</t>
+  </si>
+  <si>
+    <t>承包林地</t>
+  </si>
+  <si>
+    <t>县级以上各级档案馆的档案，应自形成之日起满几年向社会开放？</t>
+  </si>
+  <si>
+    <t>十年</t>
+  </si>
+  <si>
+    <t>二十五年</t>
+  </si>
+  <si>
+    <t>下列不属于政务处分的是：</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>记过</t>
+  </si>
+  <si>
+    <t>开除</t>
+  </si>
+  <si>
+    <t>减薪</t>
+  </si>
+  <si>
+    <t>依照法律规定，房地产抵押，抵押人和抵押权人应当签订：</t>
+  </si>
+  <si>
+    <t>书面抵押合同</t>
+  </si>
+  <si>
+    <t>口头协议</t>
+  </si>
+  <si>
+    <t>口头抵押合同</t>
+  </si>
+  <si>
+    <t>书面租赁合同</t>
+  </si>
+  <si>
+    <t>依照相关法律规定，开展药物临床试验，应当符合：</t>
+  </si>
+  <si>
+    <t>协议原则</t>
+  </si>
+  <si>
+    <t>伦理原则</t>
+  </si>
+  <si>
+    <t>自愿原则</t>
+  </si>
+  <si>
+    <t>计费原则</t>
+  </si>
+  <si>
+    <t>依照法律规定，劳动合同中约定的试用期最长不得超过：</t>
+  </si>
+  <si>
+    <t>四个月</t>
+  </si>
+  <si>
+    <t>五个月</t>
+  </si>
+  <si>
+    <t>劳动者解除劳动合同，应当提前多久以书面形式通知用人单位？</t>
+  </si>
+  <si>
+    <t>20日</t>
+  </si>
+  <si>
+    <t>7日</t>
+  </si>
+  <si>
+    <t>14日</t>
+  </si>
+  <si>
+    <t>30日</t>
+  </si>
+  <si>
+    <t>法律规定，用人单位应当保证劳动者每周至少休息：</t>
+  </si>
+  <si>
+    <t>二日</t>
+  </si>
+  <si>
+    <t>一日</t>
+  </si>
+  <si>
+    <t>三日</t>
+  </si>
+  <si>
+    <t>四日</t>
+  </si>
+  <si>
+    <t>我国法律规定，女职工生育享受不少于多久的产假？</t>
+  </si>
+  <si>
+    <t>三十天</t>
+  </si>
+  <si>
+    <t>十五天</t>
+  </si>
+  <si>
+    <t>九十天</t>
+  </si>
+  <si>
+    <t>六十天</t>
+  </si>
+  <si>
+    <t>我国法律规定，人民法院审判案件，实行：</t>
+  </si>
+  <si>
+    <t>四审终审制</t>
+  </si>
+  <si>
+    <t>单审终审制</t>
+  </si>
+  <si>
+    <t>三审终审制</t>
+  </si>
+  <si>
+    <t>两审终审制</t>
+  </si>
+  <si>
+    <t>在我国，死刑由哪一级人民法院核准？</t>
+  </si>
+  <si>
+    <t>高级人民法院</t>
+  </si>
+  <si>
+    <t>中级人民法院</t>
+  </si>
+  <si>
+    <t>基层人民法院</t>
+  </si>
+  <si>
+    <t>在我国，士兵军衔分为军士军衔和：</t>
+  </si>
+  <si>
+    <t>预备役军衔</t>
+  </si>
+  <si>
+    <t>后备军军衔</t>
+  </si>
+  <si>
+    <t>义务兵军衔</t>
+  </si>
+  <si>
+    <t>正规军军衔</t>
+  </si>
+  <si>
+    <t>在我国，工会各级组织按照什么原则建立？</t>
+  </si>
+  <si>
+    <t>举荐制</t>
+  </si>
+  <si>
+    <t>市场调节制</t>
+  </si>
+  <si>
+    <t>国家分派制</t>
+  </si>
+  <si>
+    <t>我国各级地方总工会委员会和产业工会委员会每届任期为：</t>
+  </si>
+  <si>
+    <t>中华人民共和国的根本制度是：</t>
+  </si>
+  <si>
+    <t>社会主义制度</t>
+  </si>
+  <si>
+    <t>公有制</t>
+  </si>
+  <si>
+    <t>私有制</t>
+  </si>
+  <si>
+    <t>国有制</t>
+  </si>
+  <si>
+    <t>中国特色社会主义最本质的特征是：</t>
+  </si>
+  <si>
+    <t>工农联盟为基础</t>
+  </si>
+  <si>
+    <t>中国共产党领导</t>
+  </si>
+  <si>
+    <t>人民代表大会</t>
+  </si>
+  <si>
+    <t>我国《宪法》规定，各少数民族聚居的地方实行：</t>
+  </si>
+  <si>
+    <t>相邻省份管理</t>
+  </si>
+  <si>
+    <t>国家直接管理</t>
+  </si>
+  <si>
+    <t>区域自治</t>
+  </si>
+  <si>
+    <t>一国两制</t>
+  </si>
+  <si>
+    <t>我国国民经济中的主导力量是：</t>
+  </si>
+  <si>
+    <t>小农经济</t>
+  </si>
+  <si>
+    <t>市场经济</t>
+  </si>
+  <si>
+    <t>私有经济</t>
+  </si>
+  <si>
+    <t>国有经济</t>
+  </si>
+  <si>
+    <t>我国《宪法》规定，国家推广全国通用的的语言是：</t>
+  </si>
+  <si>
+    <t>普通话</t>
+  </si>
+  <si>
+    <t>各地方言</t>
+  </si>
+  <si>
+    <t>北京官话</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>我国法律规定，年满几周岁的公民享有选举权和被选举权？</t>
+  </si>
+  <si>
+    <t>十六</t>
+  </si>
+  <si>
+    <t>十八</t>
+  </si>
+  <si>
+    <t>二十</t>
+  </si>
+  <si>
+    <t>二十二</t>
+  </si>
+  <si>
+    <t>下列不属于我国公民的基本权利的是：</t>
+  </si>
+  <si>
+    <t>受教育权</t>
+  </si>
+  <si>
+    <t>选举选</t>
+  </si>
+  <si>
+    <t>持有枪支权</t>
+  </si>
+  <si>
+    <t>被选举权</t>
+  </si>
+  <si>
+    <t>我国最高国家权力机关是：</t>
+  </si>
+  <si>
+    <t>国家政协</t>
+  </si>
+  <si>
+    <t>全国人民代表大会</t>
+  </si>
+  <si>
+    <t>在我国，下列哪一国家机关行使立法权？</t>
+  </si>
+  <si>
+    <t>教育部</t>
+  </si>
+  <si>
+    <t>我国法律规定，全国人民代表大会每届任期：</t>
+  </si>
+  <si>
+    <t>4年</t>
+  </si>
+  <si>
+    <t>我国法律规定，国家最高监察机关是：</t>
+  </si>
+  <si>
+    <t>国家监察委员会</t>
+  </si>
+  <si>
+    <t>我国法律规定，国家最高审判机关是：</t>
+  </si>
+  <si>
+    <t>全国政协</t>
+  </si>
+  <si>
+    <t>中华人民共和国人民检察院是我国的：</t>
+  </si>
+  <si>
+    <t>法律监督机关</t>
+  </si>
+  <si>
+    <t>最高监察机关</t>
+  </si>
+  <si>
+    <t>最高审判机关</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，实用新型专利权的期限为：</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，外观设计专利权的期限为：</t>
+  </si>
+  <si>
+    <t>我国注册商标的有效期自核准注册之日起计算，有效期为：</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，兵役分为现役和：</t>
+  </si>
+  <si>
+    <t>后备役</t>
+  </si>
+  <si>
+    <t>预备役</t>
+  </si>
+  <si>
+    <t>曾役</t>
+  </si>
+  <si>
+    <t>退役</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，义务兵服现役的期限为：</t>
+  </si>
+  <si>
+    <t>1年</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，保健食品广告应当显著标明：</t>
+  </si>
+  <si>
+    <t>本品不适用人群</t>
+  </si>
+  <si>
+    <t>本品经过专业认证</t>
+  </si>
+  <si>
+    <t>本品不含添加剂</t>
+  </si>
+  <si>
+    <t>本品不能代替药物</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，酒类广告不得含有下列哪一内容？</t>
+  </si>
+  <si>
+    <t>出现饮酒动作</t>
+  </si>
+  <si>
+    <t>展示品牌历史</t>
+  </si>
+  <si>
+    <t>展示酿造工艺</t>
+  </si>
+  <si>
+    <t>介绍酿酒原料</t>
+  </si>
+  <si>
+    <t>我国法律规定，机动车、非机动车实行：</t>
+  </si>
+  <si>
+    <t>左侧通行</t>
+  </si>
+  <si>
+    <t>右侧通行</t>
+  </si>
+  <si>
+    <t>早左晚右</t>
+  </si>
+  <si>
+    <t>早右晚左</t>
+  </si>
+  <si>
+    <t>机动车行经人行横道时遇行人正在通过人行横道，应当：</t>
+  </si>
+  <si>
+    <t>加速通过</t>
+  </si>
+  <si>
+    <t>减速慢行</t>
+  </si>
+  <si>
+    <t>停车让行</t>
+  </si>
+  <si>
+    <t>大声鸣笛</t>
+  </si>
+  <si>
+    <t>电动自行车在非机动车道内行驶时，最高时速不得超过：</t>
+  </si>
+  <si>
+    <t>二十公里</t>
+  </si>
+  <si>
+    <t>十公里</t>
+  </si>
+  <si>
+    <t>二十五公里</t>
+  </si>
+  <si>
+    <t>十五公里</t>
+  </si>
+  <si>
+    <t>设计最高时速低于多少公里的机动车，不得进入高速公路？</t>
+  </si>
+  <si>
+    <t>七十</t>
+  </si>
+  <si>
+    <t>六十</t>
+  </si>
+  <si>
+    <t>八十</t>
+  </si>
+  <si>
+    <t>九十</t>
+  </si>
+  <si>
+    <t>在犯罪过程中，自动放弃犯罪的行为被叫做：</t>
+  </si>
+  <si>
+    <t>犯罪预备</t>
+  </si>
+  <si>
+    <t>犯罪前兆</t>
+  </si>
+  <si>
+    <t>犯罪未遂</t>
+  </si>
+  <si>
+    <t>犯罪中止</t>
+  </si>
+  <si>
+    <t>已着手实行犯罪，由于犯罪分子意志以外的原因未得逞的行为叫做：</t>
+  </si>
+  <si>
+    <t>组织、领导犯罪集团进行犯罪活动的人被叫做：</t>
+  </si>
+  <si>
+    <t>教唆犯</t>
+  </si>
+  <si>
+    <t>从犯</t>
+  </si>
+  <si>
+    <t>主犯</t>
+  </si>
+  <si>
+    <t>胁从犯</t>
+  </si>
+  <si>
+    <t>三人以上为共同实施犯罪而组成的较为固定的犯罪组织叫做：</t>
+  </si>
+  <si>
+    <t>犯罪集体</t>
+  </si>
+  <si>
+    <t>犯罪团体</t>
+  </si>
+  <si>
+    <t>犯罪团伙</t>
+  </si>
+  <si>
+    <t>犯罪集团</t>
+  </si>
+  <si>
+    <t>在共同犯罪中起次要或者辅助作用的人被叫做：</t>
+  </si>
+  <si>
+    <t>共同犯罪中被胁迫参加犯罪的人被叫做：</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，刑罚分为主刑和：</t>
+  </si>
+  <si>
+    <t>从刑</t>
+  </si>
+  <si>
+    <t>副刑</t>
+  </si>
+  <si>
+    <t>附属刑</t>
+  </si>
+  <si>
+    <t>附加刑</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，下列属于附加刑的是：</t>
+  </si>
+  <si>
+    <t>剥夺政治权利</t>
+  </si>
+  <si>
+    <t>管制</t>
+  </si>
+  <si>
+    <t>拘役</t>
+  </si>
+  <si>
+    <t>有期徒刑</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，管制的期限，为三个月以上几年以下？</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，拘役的期限，为一个月以上几个月以下？</t>
+  </si>
+  <si>
+    <t>十二个月</t>
+  </si>
+  <si>
+    <t>根据我国法律规定，下列对象中不适用死刑的是：</t>
+  </si>
+  <si>
+    <t>审判时怀孕的妇女</t>
+  </si>
+  <si>
+    <t>审判时满二十周岁</t>
+  </si>
+  <si>
+    <t>犯罪时已成年</t>
+  </si>
+  <si>
+    <t>审判时满六十周岁</t>
+  </si>
+  <si>
+    <t>犯罪以后自动投案，如实供述自己的罪行的行为叫做：</t>
+  </si>
+  <si>
+    <t>自白</t>
+  </si>
+  <si>
+    <t>自首</t>
+  </si>
+  <si>
+    <t>上首</t>
+  </si>
+  <si>
+    <t>自检</t>
   </si>
 </sst>
 </file>
@@ -2134,10 +2974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -4489,11 +5329,2379 @@
       <c r="H73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="1">
         <v>40</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="1">
         <v>60</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="1">
+        <v>80</v>
+      </c>
+      <c r="J74" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:10">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="1">
+        <v>70</v>
+      </c>
+      <c r="J75" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:10">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="1">
+        <v>80</v>
+      </c>
+      <c r="J76" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:10">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="1">
+        <v>70</v>
+      </c>
+      <c r="J77" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:10">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="1">
+        <v>80</v>
+      </c>
+      <c r="J78" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:10">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="1">
+        <v>80</v>
+      </c>
+      <c r="J79" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:10">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="1">
+        <v>10</v>
+      </c>
+      <c r="J80" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:10">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="1">
+        <v>70</v>
+      </c>
+      <c r="J81" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:10">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="1">
+        <v>30</v>
+      </c>
+      <c r="J82" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:10">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="1">
+        <v>60</v>
+      </c>
+      <c r="J83" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:10">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" s="1">
+        <v>30</v>
+      </c>
+      <c r="J84" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:10">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" s="1">
+        <v>80</v>
+      </c>
+      <c r="J85" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:10">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="1">
+        <v>70</v>
+      </c>
+      <c r="J86" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:10">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="1">
+        <v>10</v>
+      </c>
+      <c r="J87" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:10">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" s="1">
+        <v>70</v>
+      </c>
+      <c r="J88" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:10">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="1">
+        <v>50</v>
+      </c>
+      <c r="J89" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:10">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="1">
+        <v>50</v>
+      </c>
+      <c r="J90" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:10">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="1">
+        <v>70</v>
+      </c>
+      <c r="J91" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:10">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="1">
+        <v>80</v>
+      </c>
+      <c r="J92" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:10">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="1">
+        <v>70</v>
+      </c>
+      <c r="J93" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:10">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="1">
+        <v>10</v>
+      </c>
+      <c r="J94" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:10">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="1">
+        <v>5</v>
+      </c>
+      <c r="J95" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:10">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="1">
+        <v>5</v>
+      </c>
+      <c r="J96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:10">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="1">
+        <v>10</v>
+      </c>
+      <c r="J97" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:10">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="1">
+        <v>60</v>
+      </c>
+      <c r="J98" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:10">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="1">
+        <v>10</v>
+      </c>
+      <c r="J99" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:10">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="1">
+        <v>70</v>
+      </c>
+      <c r="J100" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:10">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="1">
+        <v>60</v>
+      </c>
+      <c r="J101" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:10">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="1">
+        <v>70</v>
+      </c>
+      <c r="J102" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:10">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" s="1">
+        <v>20</v>
+      </c>
+      <c r="J103" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:10">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="1">
+        <v>20</v>
+      </c>
+      <c r="J104" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:10">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="1">
+        <v>80</v>
+      </c>
+      <c r="J105" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:10">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="1">
+        <v>10</v>
+      </c>
+      <c r="J106" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:10">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="1">
+        <v>10</v>
+      </c>
+      <c r="J107" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:10">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="1">
+        <v>70</v>
+      </c>
+      <c r="J108" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:10">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="1">
+        <v>60</v>
+      </c>
+      <c r="J109" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:10">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" s="1">
+        <v>10</v>
+      </c>
+      <c r="J110" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:10">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" s="1">
+        <v>10</v>
+      </c>
+      <c r="J111" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:10">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="1">
+        <v>90</v>
+      </c>
+      <c r="J112" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:10">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="1">
+        <v>60</v>
+      </c>
+      <c r="J113" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:10">
+      <c r="A114" s="1">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="1">
+        <v>80</v>
+      </c>
+      <c r="J114" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:10">
+      <c r="A115" s="1">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="1">
+        <v>80</v>
+      </c>
+      <c r="J115" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:10">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="1">
+        <v>90</v>
+      </c>
+      <c r="J116" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:10">
+      <c r="A117" s="1">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="1">
+        <v>90</v>
+      </c>
+      <c r="J117" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:10">
+      <c r="A118" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" s="1">
+        <v>90</v>
+      </c>
+      <c r="J118" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:10">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" s="1">
+        <v>90</v>
+      </c>
+      <c r="J119" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:10">
+      <c r="A120" s="1">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" s="1">
+        <v>80</v>
+      </c>
+      <c r="J120" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:10">
+      <c r="A121" s="1">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" s="1">
+        <v>50</v>
+      </c>
+      <c r="J121" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:10">
+      <c r="A122" s="1">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="1">
+        <v>70</v>
+      </c>
+      <c r="J122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:10">
+      <c r="A123" s="1">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" s="1">
+        <v>80</v>
+      </c>
+      <c r="J123" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:10">
+      <c r="A124" s="1">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="1">
+        <v>50</v>
+      </c>
+      <c r="J124" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:10">
+      <c r="A125" s="1">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="1">
+        <v>10</v>
+      </c>
+      <c r="J125" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:10">
+      <c r="A126" s="1">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="1">
+        <v>10</v>
+      </c>
+      <c r="J126" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:10">
+      <c r="A127" s="1">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" s="1">
+        <v>10</v>
+      </c>
+      <c r="J127" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:10">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" s="1">
+        <v>70</v>
+      </c>
+      <c r="J128" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:10">
+      <c r="A129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" s="1">
+        <v>60</v>
+      </c>
+      <c r="J129" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:10">
+      <c r="A130" s="1">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="1">
+        <v>60</v>
+      </c>
+      <c r="J130" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:10">
+      <c r="A131" s="1">
+        <v>128</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="1">
+        <v>70</v>
+      </c>
+      <c r="J131" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:10">
+      <c r="A132" s="1">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="1">
+        <v>90</v>
+      </c>
+      <c r="J132" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:10">
+      <c r="A133" s="1">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="1">
+        <v>90</v>
+      </c>
+      <c r="J133" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:10">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="1">
+        <v>60</v>
+      </c>
+      <c r="J134" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:10">
+      <c r="A135" s="1">
+        <v>132</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" s="1">
+        <v>50</v>
+      </c>
+      <c r="J135" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:10">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="1">
+        <v>70</v>
+      </c>
+      <c r="J136" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:10">
+      <c r="A137" s="1">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I137" s="1">
+        <v>70</v>
+      </c>
+      <c r="J137" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:10">
+      <c r="A138" s="1">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" s="1">
+        <v>90</v>
+      </c>
+      <c r="J138" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:10">
+      <c r="A139" s="1">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139" s="1">
+        <v>70</v>
+      </c>
+      <c r="J139" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:10">
+      <c r="A140" s="1">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" s="1">
+        <v>80</v>
+      </c>
+      <c r="J140" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:10">
+      <c r="A141" s="1">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="1">
+        <v>70</v>
+      </c>
+      <c r="J141" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:10">
+      <c r="A142" s="1">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="1">
+        <v>70</v>
+      </c>
+      <c r="J142" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:10">
+      <c r="A143" s="1">
+        <v>140</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="1">
+        <v>70</v>
+      </c>
+      <c r="J143" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:10">
+      <c r="A144" s="1">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" s="1">
+        <v>10</v>
+      </c>
+      <c r="J144" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:10">
+      <c r="A145" s="1">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="1">
+        <v>10</v>
+      </c>
+      <c r="J145" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:10">
+      <c r="A146" s="1">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" s="1">
+        <v>70</v>
+      </c>
+      <c r="J146" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:10">
+      <c r="A147" s="1">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="1">
+        <v>90</v>
+      </c>
+      <c r="J147" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
